--- a/Risikoanalyse - v2.xlsx
+++ b/Risikoanalyse - v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\EPWS2223HausenKochZimmer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D687EF-2D33-4AD8-BC30-FF6BF4008FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706DC09-306D-46F6-83B9-6B4E68D9043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-30" windowWidth="21600" windowHeight="11385" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
   <si>
     <t>Top 10 Risiken</t>
   </si>
@@ -138,87 +138,24 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Community aufbau scheitert</t>
-  </si>
-  <si>
-    <t>Es gelingt nicht keine Community vom Menschen mit historischen Arefakten enstehen zu lassen.</t>
-  </si>
-  <si>
-    <t>wissenschaftliche verifizierung des User Content</t>
-  </si>
-  <si>
-    <t>Es gelingt nicht den User Content wissenschaftlich verfivizieren zulassen</t>
-  </si>
-  <si>
-    <t>Externe Experten verifizieren nicht</t>
-  </si>
-  <si>
-    <t>Externe Experten stoppen oder Beenden die wissenschafliche verifizierung der digitalen Artefakte</t>
-  </si>
-  <si>
     <t>Es werden keine Externen Experten gefunden</t>
   </si>
   <si>
-    <t>Es gelingt nicht Externe Experten zum wissenschaflichen verifizieren zufinden.</t>
-  </si>
-  <si>
-    <t>es werden keine "erst" User gefunden</t>
-  </si>
-  <si>
-    <t>Es gelingt nicht erste User für die Community zufinden.</t>
-  </si>
-  <si>
     <t>Keine Community  Moderatoren</t>
   </si>
   <si>
-    <t xml:space="preserve">Es gelingt nicht Community Moderatoren gefunden </t>
-  </si>
-  <si>
-    <t>Community moderator schadet dem Projekt</t>
-  </si>
-  <si>
-    <t>kein User Content</t>
-  </si>
-  <si>
-    <t>Es gelingt nicht user zum Uploade des User Content zu motivieren</t>
-  </si>
-  <si>
-    <t>Es gelingt nicht System Moderatoren oder Administatoren zu finden</t>
-  </si>
-  <si>
     <t>Es werden keine System Moderatoren oder Administratoren  gefunden</t>
   </si>
   <si>
     <t xml:space="preserve">System Moderatoren oder Administratoren schaden dem Projekt </t>
   </si>
   <si>
-    <t>scheitern des Archiev</t>
-  </si>
-  <si>
-    <t>Es gelingt nicht ein Community getriebenes digitales Archiv zugründen</t>
-  </si>
-  <si>
-    <t>Das System schaft nicht die Darstellung der digitalen Artefakte</t>
-  </si>
-  <si>
-    <t>Das System ermöglicht nicht sich ein Bild einer Mittelstadt zu einer bestimmten Zeitperiode zu machen</t>
-  </si>
-  <si>
     <t>Das System ist nicht in beliebigen Mittelstädten einsetzbar</t>
   </si>
   <si>
-    <t>Der Uploade von Bildern ist nicht funktional</t>
-  </si>
-  <si>
     <t>Die Einordnung der Bilder nach Ort und Zeit ist nicht funktional</t>
   </si>
   <si>
-    <t xml:space="preserve"> Das Hinterlassen von Kommentare und Fließtexte zu texten ist nicht funktional</t>
-  </si>
-  <si>
-    <t>Die Community soll auch für Ortsfremde und neu Bewohner findbar und zugänglich sein</t>
-  </si>
-  <si>
     <t>Der Kontext von Bildern und der Geschicht wird nicht verdeutlicht</t>
   </si>
   <si>
@@ -231,51 +168,15 @@
     <t>Die UI ist nicht benutzerfreundlich</t>
   </si>
   <si>
-    <t>die Zugänge für externe Experten find fehlerhaft oder nicht implementiert</t>
-  </si>
-  <si>
     <t>Die Übermittlung der Verifizierung der Experten ist nicht funktional oder nicht inplementiert</t>
   </si>
   <si>
-    <t>Das Anzeigen oder Zweisund des User Content zu Experten ist nicht funtkional oder nicht implementiert</t>
-  </si>
-  <si>
-    <t>Der Uploade ist zu kompliziert</t>
-  </si>
-  <si>
-    <t>Der upload ist nicht funktional</t>
-  </si>
-  <si>
-    <t>Der Uplade ist nicht bei allen gängigen Bildformaten funktional</t>
-  </si>
-  <si>
-    <t>Der uploade ist bei Bilder mit Kontext und Beschreibung nicht funktional oder nicht implementiert</t>
-  </si>
-  <si>
-    <t>Der Uplade für Freitext ist nicht funktional oder nicht implementiert</t>
-  </si>
-  <si>
-    <t>Der Uploade für mehrere Bilder und Freitexte/Texte ist nicht funktional oder nicht implementiert</t>
-  </si>
-  <si>
-    <t>Die User Profiles sind nicht fun ktional oder nicht implementiert</t>
-  </si>
-  <si>
     <t>Die Spezifizierung der Stadt im Profil ist nicht funktional oder nicht implementiert</t>
   </si>
   <si>
-    <t>Die Vernetung der User ist nicht funktional oder nicht Implementiert</t>
-  </si>
-  <si>
     <t>Die Interaktion zwischen den Usern ist nicht funktional oder nicht implementiert</t>
   </si>
   <si>
-    <t>Die Zugänge der Community Moderatoren sind nicht funktional oder nocht implementiert</t>
-  </si>
-  <si>
-    <t>Die Rechte verteilung an die Community Moderatoren ist nicht funktional oder nicht Implementiert</t>
-  </si>
-  <si>
     <t>Die Umsetzung der Rechte der Community Moderatoren ist nicht funktional oder nicht Implementiert</t>
   </si>
   <si>
@@ -297,23 +198,227 @@
     <t>Die Umsetzung der Rechte der Administratoren ist nicht funktional oder nicht Implementiert</t>
   </si>
   <si>
-    <t>Der Rechte / Zugangs entzug von Community Moderatoren durch System Moderatoren ist nicht funktional oder nicht implementiert</t>
-  </si>
-  <si>
     <t>Der Rechte / Zugangs entzug von System Moderatoren durch Administratoren ist nicht funktional oder nicht implementiert</t>
   </si>
   <si>
-    <t>Das Verwehren des Zugangs von usern ist nicht funktional oder nicht implementiert</t>
-  </si>
-  <si>
     <t>Es wurden keine Administratoren  gefunden</t>
+  </si>
+  <si>
+    <t>Scheitern des Archiv</t>
+  </si>
+  <si>
+    <t>Es gelingt nicht, ein durch die Community getriebenes digitales Archiv zugründen</t>
+  </si>
+  <si>
+    <t>Das System schafft nicht die Darstellung der digitalen Artefakte</t>
+  </si>
+  <si>
+    <t>Communityaufbau scheitert</t>
+  </si>
+  <si>
+    <t>Wissenschaftliche Verifizierung des Usercontents</t>
+  </si>
+  <si>
+    <t>Der Upload von Bildern ist nicht funktional</t>
+  </si>
+  <si>
+    <t>Die Einordnungsfunktion ist nicht umgesetzt wie zuvor zwecksmäßig geplant</t>
+  </si>
+  <si>
+    <t>Die Uploadfunktion ist nicht umgesetzt wie zuvor zwecksmäßig geplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Das Hinzufügen von Kommentaren und Fließtexten ist nicht funktional</t>
+  </si>
+  <si>
+    <t>Die Funktion vom Hinzufügen von Bildern und Fließtexten ist nicht umgesetzt wie 
+zuvor zwecksmäßig geplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die hochgeladenen Bilder und Geschichten erfüllen nicht die ausreichenden Kriterien damit ein deutlicher Kontext nachvollziehbar ist </t>
+  </si>
+  <si>
+    <t>Externe Experten verifizieren nicht digitale Artefakte</t>
+  </si>
+  <si>
+    <t>Externe Experten stoppen oder beenden die wissenschafliche verifizierung der digitalen Artefakte</t>
+  </si>
+  <si>
+    <t>Es gelingt uns nicht, externe Experten zum wissenschaflichen Verifizieren zu finden</t>
+  </si>
+  <si>
+    <t>Es werden keine "erst" User gefunden</t>
+  </si>
+  <si>
+    <t>Es gelingt uns nicht "erste" User für die Community zufinden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es gelingt uns nicht Community Moderatoren gefunden </t>
+  </si>
+  <si>
+    <t>Community Moderator schadet dem Projekt</t>
+  </si>
+  <si>
+    <t>Community Moderatoren verursachen ungewünschte Probleme am System oder dem Umgang mit Usern</t>
+  </si>
+  <si>
+    <t>Es gelingt uns nicht System Moderatoren oder Administatoren zu finden</t>
+  </si>
+  <si>
+    <t>Es gelingt nicht User zum Uploaden des Usercontent zu motivieren</t>
+  </si>
+  <si>
+    <t>System Moderatoren oder Administratoren verursachen ungewünschte Probleme am System oder dem Umgang mit Usern</t>
+  </si>
+  <si>
+    <t>Benutzer fällt es schwer, sich durch das System zu navigieren und es zu bedienen</t>
+  </si>
+  <si>
+    <t>Der Upload ist zu kompliziert</t>
+  </si>
+  <si>
+    <t>Der Upload ist nicht funktional</t>
+  </si>
+  <si>
+    <t>Der Upload ist nicht für allen gängigen Bildformaten funktional</t>
+  </si>
+  <si>
+    <t>Usern ist es nicht möglich Bilder hochzuladen, da diese 
+das falsche Bildformat haben, welches das System nicht akzeptiert</t>
+  </si>
+  <si>
+    <t>Usern gelingt es nicht, Content hochzuladen, da sie die 
+vorgesehene Uploadfunktion nicht verstehen</t>
+  </si>
+  <si>
+    <t>Der Upload ist bei Bilder mit Kontext und Beschreibung nicht funktional oder nicht implementiert</t>
+  </si>
+  <si>
+    <t>Der Upload für Freitext ist nicht funktional oder nicht implementiert</t>
+  </si>
+  <si>
+    <t>Nutzern ist es nicht möglich, Freitext zu jeweiligem 
+Content hinzuzufügen bzw. nicht so wie gewollt</t>
+  </si>
+  <si>
+    <t>Die User Profiles sind nicht funktional oder nicht implementiert</t>
+  </si>
+  <si>
+    <t>Die Vernetzung der User ist nicht funktional oder nicht Implementiert</t>
+  </si>
+  <si>
+    <t>Usern ist es nicht möglich, andere User zu kontaktieren 
+und/oder eine Möglichkeit zu haben, mit ihnen in Kontakt zu bleiben</t>
+  </si>
+  <si>
+    <t>Comunity Moderatoren können nicht wie gewollt auf 
+das System zugreifen und/oder Änderungen daran vornehmen</t>
+  </si>
+  <si>
+    <t>System Moderatoren können nicht wie gewollt auf das 
+System zugreifen und/oder Änderungen daran vornehmen</t>
+  </si>
+  <si>
+    <t>Administratoren können nicht wie gewollt auf das 
+System zugreifen und/oder Änderungen daran vornehmen</t>
+  </si>
+  <si>
+    <t>Uns war es nicht möglich Administratoren zu finden, 
+welche unser System verwalten</t>
+  </si>
+  <si>
+    <t>Die Rechteverteilung an die Community Moderatoren ist nicht funktional oder nicht Implementiert</t>
+  </si>
+  <si>
+    <t>Community Moderatoren können nicht wie gewollt oder 
+gar nicht gewünschte Rechte verteilen</t>
+  </si>
+  <si>
+    <t>System Moderatoren können nicht wie gewollt oder 
+gar nicht gewünschte Rechte verteilen</t>
+  </si>
+  <si>
+    <t>Administratoren können nicht wie gewollt oder 
+gar nicht gewünschte Rechte verteilen</t>
+  </si>
+  <si>
+    <t>Der Rechte-/ Zugangsentzug von Community Moderatoren durch System Moderatoren ist nicht funktional oder nicht implementiert</t>
+  </si>
+  <si>
+    <t>System Moderatoren können nicht wie gewollt oder gar 
+nicht Rechte/Zugänge von Community Moderatoren bearbeiten</t>
+  </si>
+  <si>
+    <t>Administratoren können nicht wie gewollt oder gar 
+nicht Rechte/Zugänge von System Moderatoren bearbeiten</t>
+  </si>
+  <si>
+    <t>Durch fehlerhafte Projekt oder Zeitplanung scheitert die Gründung des digitalen Archivs</t>
+  </si>
+  <si>
+    <t>Das System ermöglicht nicht, sich ein Bild einer Mittelstadt zu einer bestimmten Zeitperiode zu machen</t>
+  </si>
+  <si>
+    <t>Es gelingt nicht, eine Community vom Menschen mit historischen Arefakten enstehen zu lassen.</t>
+  </si>
+  <si>
+    <t>Falsche Projektplanung
+Mangel an Usern
+Fehlende Beteiligung der User</t>
+  </si>
+  <si>
+    <t>Es gelingt nicht, den Usercontent wissenschaftlich verifizieren zu zulassen</t>
+  </si>
+  <si>
+    <t>zb RWE und Stadt/Dorf sehr jung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Community soll auch für Ortsfremde und neue Bewohner findbar und zugänglich sein </t>
+  </si>
+  <si>
+    <t>Kein User Content</t>
+  </si>
+  <si>
+    <t>Die gefundene/n Zielgruppe und/oder Stakeholder sind nicht die, wie zuvor geplant und/oder agieren nicht so geplant mit dem System</t>
+  </si>
+  <si>
+    <t>Die Zugänge für externe Experten sind fehlerhaft oder nicht implementiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externe Experten können nicht wie gewollt auf das System zugreifen </t>
+  </si>
+  <si>
+    <t>Experten können nicht wie gewollt oder gar nicht den Content verifizieren</t>
+  </si>
+  <si>
+    <t>Das Anzeigen oder Zuweisen des User Content zu Experten ist nicht funtkional oder nicht implementiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experten bekommen nicht wie gewollt oder gar nicht, den für sie gewollten Content angezeigt bzw. zugewiesen </t>
+  </si>
+  <si>
+    <t>Den Usern ist es nicht möglich, wie gewollt, Content 
+hochzuladen</t>
+  </si>
+  <si>
+    <t>Usern ist es nicht möglich, wie gewollt oder gar nicht, 
+Bilder mit Kontext und Beschreibungen hochzuladen</t>
+  </si>
+  <si>
+    <t>Der Upload für mehrere Content Elemente von Usern</t>
+  </si>
+  <si>
+    <t>Die Zugänge der Community Moderatoren sind nicht funktional oder nicht implementiert</t>
+  </si>
+  <si>
+    <t>Das Verwehren des Zugangs von Usern zum System ist nicht funktional oder nicht implementiert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +442,20 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -551,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,6 +774,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -971,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
   <dimension ref="A2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,13 +1256,17 @@
         <v>6</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="G9" s="28"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1126,12 +1274,14 @@
         <v>7</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="30"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="29"/>
       <c r="G10" s="28"/>
     </row>
@@ -1139,26 +1289,34 @@
       <c r="B11" s="31">
         <v>8</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F11" s="29"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="28">
         <v>9</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+        <v>101</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="G12" s="28"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1166,60 +1324,78 @@
         <v>10</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="28"/>
+        <v>103</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F13" s="29"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="28">
         <v>11</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="28"/>
+        <v>59</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" s="29"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="28">
         <v>12</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F15" s="29"/>
       <c r="G15" s="28"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="28">
         <v>13</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="28"/>
+        <v>62</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F16" s="29"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="28">
         <v>14</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="28"/>
+        <v>38</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F17" s="29"/>
       <c r="G17" s="28"/>
     </row>
@@ -1229,10 +1405,12 @@
         <v>15</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D18" s="32"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F18" s="29"/>
       <c r="G18" s="28"/>
     </row>
@@ -1241,12 +1419,14 @@
         <v>16</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F19" s="29"/>
       <c r="G19" s="28"/>
     </row>
@@ -1255,26 +1435,30 @@
         <v>17</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F20" s="29"/>
       <c r="G20" s="28"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="28">
         <v>18</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F21" s="29"/>
       <c r="G21" s="28"/>
     </row>
@@ -1283,24 +1467,30 @@
         <v>19</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F22" s="29"/>
       <c r="G22" s="28"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="30">
         <v>20</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F23" s="29"/>
       <c r="G23" s="28"/>
     </row>
@@ -1309,12 +1499,14 @@
         <v>21</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F24" s="29"/>
       <c r="G24" s="28"/>
     </row>
@@ -1323,24 +1515,30 @@
         <v>21</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="28"/>
+        <v>73</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F25" s="29"/>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="30">
         <v>22</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="29"/>
       <c r="G26" s="28"/>
     </row>
@@ -1348,252 +1546,392 @@
       <c r="B27" s="28">
         <v>23</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>60</v>
+      <c r="C27" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="D27" s="29"/>
-      <c r="E27" s="28"/>
+      <c r="E27" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F27" s="29"/>
       <c r="G27" s="28"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="28">
         <v>24</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F28" s="29"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="28">
         <v>25</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F29" s="29"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="28">
         <v>26</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="28"/>
+        <v>108</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F30" s="29"/>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="28">
         <v>27</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="28"/>
+        <v>42</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F31" s="29"/>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="35">
         <v>28</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="35">
         <v>29</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="35">
         <v>30</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="35">
         <v>31</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="35">
         <v>32</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="35">
         <v>33</v>
       </c>
-      <c r="C37" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="35">
         <v>34</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="35">
         <v>35</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="35">
         <v>36</v>
       </c>
-      <c r="C40" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="35">
         <v>37</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="35">
         <v>38</v>
       </c>
-      <c r="C42" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="35">
         <v>39</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="35">
         <v>40</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="35">
         <v>41</v>
       </c>
-      <c r="C45" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="36">
         <v>42</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="35">
         <v>43</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="35">
         <v>44</v>
       </c>
-      <c r="C48" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="35">
         <v>45</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="35">
         <v>46</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="35">
         <v>47</v>
       </c>
-      <c r="C51" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="35">
         <v>48</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="35">
         <v>49</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>86</v>
+        <v>52</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="35">
         <v>50</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="35">
         <v>51</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>88</v>
+        <v>53</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">

--- a/Risikoanalyse - v2.xlsx
+++ b/Risikoanalyse - v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706DC09-306D-46F6-83B9-6B4E68D9043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82CB2D6-F695-4B85-A8DC-F558B66AE38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="124">
   <si>
     <t>Top 10 Risiken</t>
   </si>
@@ -229,10 +229,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Das Hinzufügen von Kommentaren und Fließtexten ist nicht funktional</t>
-  </si>
-  <si>
-    <t>Die Funktion vom Hinzufügen von Bildern und Fließtexten ist nicht umgesetzt wie 
-zuvor zwecksmäßig geplant</t>
   </si>
   <si>
     <t xml:space="preserve">Die hochgeladenen Bilder und Geschichten erfüllen nicht die ausreichenden Kriterien damit ein deutlicher Kontext nachvollziehbar ist </t>
@@ -412,6 +408,33 @@
   </si>
   <si>
     <t>Das Verwehren des Zugangs von Usern zum System ist nicht funktional oder nicht implementiert</t>
+  </si>
+  <si>
+    <t>Es ist nicht möglich mehrere Elemente auf einmal in 
+einem Post hochzuladen</t>
+  </si>
+  <si>
+    <t>Das Anlegen von Profilen für User ist nicht möglich oder nicht so wie gewollt.</t>
+  </si>
+  <si>
+    <t>Es ist nicht möglich bzw. nicht so wie gewollt, dass man 
+in seinem Profil eine Stadt spezifiziert.</t>
+  </si>
+  <si>
+    <t>Die Rechte für Community Moderatoren sind nicht so 
+umgesetzt wie geplant oder gar nicht umgesetzt</t>
+  </si>
+  <si>
+    <t>Die Rechte für System Moderatoren sind nicht so 
+umgesetzt wie geplant oder gar nicht umgesetzt</t>
+  </si>
+  <si>
+    <t>Die Rechte für Administratoren sind nicht so umgesetzt 
+wie geplant oder gar nicht umgesetzt</t>
+  </si>
+  <si>
+    <t>Es ist nicht richtig oder gar nicht möglich, Usern den 
+Zugang zu unserem System zu verwehren</t>
   </si>
 </sst>
 </file>
@@ -670,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,9 +806,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,7 +818,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1115,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
   <dimension ref="A2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,8 +1283,8 @@
       <c r="E9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>99</v>
+      <c r="F9" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="G9" s="28"/>
     </row>
@@ -1277,7 +1296,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>8</v>
@@ -1292,8 +1311,8 @@
       <c r="C11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>104</v>
+      <c r="D11" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>8</v>
@@ -1309,13 +1328,13 @@
         <v>57</v>
       </c>
       <c r="D12" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>102</v>
       </c>
       <c r="G12" s="28"/>
     </row>
@@ -1327,7 +1346,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>8</v>
@@ -1367,7 +1386,7 @@
       <c r="F15" s="29"/>
       <c r="G15" s="28"/>
     </row>
-    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="28">
         <v>13</v>
       </c>
@@ -1375,7 +1394,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>8</v>
@@ -1391,7 +1410,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>8</v>
@@ -1405,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="12" t="s">
@@ -1419,10 +1438,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>8</v>
@@ -1438,7 +1457,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>8</v>
@@ -1451,10 +1470,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>69</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>8</v>
@@ -1470,7 +1489,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>8</v>
@@ -1483,10 +1502,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>71</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>72</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>8</v>
@@ -1499,10 +1518,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>8</v>
@@ -1518,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>8</v>
@@ -1534,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>8</v>
@@ -1563,8 +1582,8 @@
       <c r="C28" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="41" t="s">
-        <v>107</v>
+      <c r="D28" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>8</v>
@@ -1580,7 +1599,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>8</v>
@@ -1593,10 +1612,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>108</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>109</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>8</v>
@@ -1612,7 +1631,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>8</v>
@@ -1625,10 +1644,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="41" t="s">
         <v>111</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>112</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>8</v>
@@ -1639,10 +1658,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>8</v>
@@ -1653,10 +1672,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>8</v>
@@ -1667,10 +1686,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="38" t="s">
         <v>79</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>80</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>8</v>
@@ -1681,10 +1700,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>8</v>
@@ -1694,44 +1713,53 @@
       <c r="B37" s="35">
         <v>33</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>84</v>
-      </c>
       <c r="E37" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="35">
         <v>34</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>115</v>
+      <c r="C38" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="35">
         <v>35</v>
       </c>
-      <c r="C39" s="39" t="s">
-        <v>85</v>
+      <c r="C39" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>118</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="35">
         <v>36</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>43</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>8</v>
@@ -1742,10 +1770,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>87</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>8</v>
@@ -1755,7 +1783,7 @@
       <c r="B42" s="35">
         <v>38</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="42" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="12" t="s">
@@ -1767,10 +1795,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>88</v>
+        <v>115</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>8</v>
@@ -1781,36 +1809,38 @@
         <v>40</v>
       </c>
       <c r="C44" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="44" t="s">
-        <v>93</v>
-      </c>
       <c r="E44" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="35">
         <v>41</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="45"/>
+      <c r="D45" s="43" t="s">
+        <v>120</v>
+      </c>
       <c r="E45" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="36">
         <v>42</v>
       </c>
       <c r="C46" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="44" t="s">
-        <v>89</v>
+      <c r="D46" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>8</v>
@@ -1823,34 +1853,36 @@
       <c r="C47" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="44" t="s">
-        <v>94</v>
+      <c r="D47" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="35">
         <v>44</v>
       </c>
       <c r="C48" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="45"/>
+      <c r="D48" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="E48" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="35">
         <v>45</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="44" t="s">
-        <v>90</v>
+      <c r="D49" s="43" t="s">
+        <v>89</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>8</v>
@@ -1864,18 +1896,21 @@
         <v>50</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="35">
         <v>47</v>
       </c>
       <c r="C51" s="36" t="s">
         <v>51</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>8</v>
@@ -1886,10 +1921,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="38" t="s">
         <v>96</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>97</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>8</v>
@@ -1903,18 +1938,21 @@
         <v>52</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="35">
         <v>50</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>8</v>
@@ -1928,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>8</v>

--- a/Risikoanalyse - v2.xlsx
+++ b/Risikoanalyse - v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82CB2D6-F695-4B85-A8DC-F558B66AE38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B81D56-3083-4A75-9385-05BE65BFFCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
@@ -478,13 +478,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +495,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -693,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,15 +815,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1134,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
   <dimension ref="A2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,8 +1166,8 @@
     <col min="7" max="7" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <v>1</v>
       </c>
@@ -1190,7 +1207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -1210,7 +1227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -1230,7 +1247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>4</v>
       </c>
@@ -1250,7 +1267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1270,7 +1287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="28">
         <v>6</v>
       </c>
@@ -1288,7 +1305,7 @@
       </c>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="30">
         <v>7</v>
       </c>
@@ -1304,7 +1321,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>8</v>
       </c>
@@ -1320,7 +1337,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="28">
         <v>9</v>
       </c>
@@ -1338,7 +1355,7 @@
       </c>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="28">
         <v>10</v>
       </c>
@@ -1354,53 +1371,56 @@
       <c r="F13" s="29"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="28">
+    <row r="14" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="42">
         <v>11</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="28">
+      <c r="E14" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="42">
         <v>12</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="28">
+      <c r="E15" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="42">
         <v>13</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
+      <c r="E16" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="28">
@@ -1433,37 +1453,39 @@
       <c r="F18" s="29"/>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
+    <row r="19" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="42">
         <v>16</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
+      <c r="E19" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="42">
         <v>17</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
+      <c r="E20" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="28">
@@ -1481,21 +1503,22 @@
       <c r="F21" s="29"/>
       <c r="G21" s="28"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="28">
+    <row r="22" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="42">
         <v>19</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
+      <c r="E22" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="30">
@@ -1513,37 +1536,39 @@
       <c r="F23" s="29"/>
       <c r="G23" s="28"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="28">
+    <row r="24" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="42">
         <v>21</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="28">
+      <c r="E24" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="42">
         <v>21</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28"/>
+      <c r="E25" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="30">
@@ -1561,19 +1586,20 @@
       <c r="F26" s="29"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="28">
+    <row r="27" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="42">
         <v>23</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="28">
@@ -1607,53 +1633,56 @@
       <c r="F29" s="29"/>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="28">
+    <row r="30" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="42">
         <v>26</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
+      <c r="E30" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="42">
         <v>27</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="35">
+      <c r="E31" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="45">
         <v>28</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="35">
         <v>29</v>
       </c>
@@ -1667,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="35">
         <v>30</v>
       </c>
@@ -1681,49 +1710,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="35">
+    <row r="35" spans="1:5" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="45">
         <v>31</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="35">
+      <c r="E35" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="45">
         <v>32</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="35">
+      <c r="E36" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="45">
         <v>33</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="35">
         <v>34</v>
       </c>
@@ -1737,21 +1769,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="35">
+    <row r="39" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="48"/>
+      <c r="B39" s="45">
         <v>35</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E39" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="35">
         <v>36</v>
       </c>
@@ -1765,228 +1798,243 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="35">
+    <row r="41" spans="1:5" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="48"/>
+      <c r="B41" s="45">
         <v>37</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="35">
+      <c r="E41" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="48"/>
+      <c r="B42" s="45">
         <v>38</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="35">
+      <c r="E42" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="48"/>
+      <c r="B43" s="45">
         <v>39</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="35">
+      <c r="E43" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="48"/>
+      <c r="B44" s="45">
         <v>40</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="35">
+      <c r="E44" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="48"/>
+      <c r="B45" s="45">
         <v>41</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="36">
+      <c r="E45" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="48"/>
+      <c r="B46" s="45">
         <v>42</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="D46" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="35">
+      <c r="E46" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="48"/>
+      <c r="B47" s="45">
         <v>43</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="35">
+      <c r="E47" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="48"/>
+      <c r="B48" s="45">
         <v>44</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="35">
+      <c r="E48" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="48"/>
+      <c r="B49" s="45">
         <v>45</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="35">
+      <c r="E49" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+      <c r="B50" s="45">
         <v>46</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="35">
+      <c r="E50" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="48"/>
+      <c r="B51" s="45">
         <v>47</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B52" s="35">
+      <c r="E51" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
+      <c r="B52" s="45">
         <v>48</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="35">
+      <c r="E52" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="48"/>
+      <c r="B53" s="45">
         <v>49</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="35">
+      <c r="E53" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="48"/>
+      <c r="B54" s="45">
         <v>50</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="35">
+      <c r="E54" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="48"/>
+      <c r="B55" s="45">
         <v>51</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="35">
         <v>52</v>
       </c>
       <c r="C56" s="35"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>26</v>
       </c>
@@ -1997,7 +2045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="16">
         <v>1</v>
       </c>
@@ -2010,7 +2058,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>2</v>
       </c>
@@ -2021,7 +2069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>3</v>
       </c>
